--- a/ExampleIG/output/StructureDefinition-vurdertDato.xlsx
+++ b/ExampleIG/output/StructureDefinition-vurdertDato.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://helsenorge.no/fhir/StructureDefinition/no-frist-for-vurdering</t>
+    <t>http://helsenorge.no/fhir/StructureDefinition/no-vurdert-dato</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:54:59+02:00</t>
+    <t>2025-09-29T13:11:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-vurdertDato.xlsx
+++ b/ExampleIG/output/StructureDefinition-vurdertDato.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.1</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T13:11:32+02:00</t>
+    <t>2025-09-29T13:18:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-vurdertDato.xlsx
+++ b/ExampleIG/output/StructureDefinition-vurdertDato.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T13:18:42+02:00</t>
+    <t>2025-10-01T13:36:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
